--- a/avito_78404_tst.xlsx
+++ b/avito_78404_tst.xlsx
@@ -110,7 +110,7 @@
     <t>2020-03-22 06:11:00</t>
   </si>
   <si>
-    <t>https://19.img.avito.st/1280x960/8342933419.jpg, https://51.img.avito.st/1280x960/8318818051.jpg, https://38.img.avito.st/1280x960/8318818038.jpg, https://54.img.avito.st/1280x960/8318818054.jpg</t>
+    <t>https://19.img.avito.st/1280x960/8342933419.jpg, , https://51.img.avito.st/1280x960/8318818051.jpg, https://38.img.avito.st/1280x960/8318818038.jpg, https://54.img.avito.st/1280x960/8318818054.jpg</t>
   </si>
 </sst>
 </file>
@@ -482,7 +482,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/avito_78404_tst.xlsx
+++ b/avito_78404_tst.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Телефон</t>
   </si>
@@ -110,7 +110,7 @@
     <t>2020-03-22 06:11:00</t>
   </si>
   <si>
-    <t>https://19.img.avito.st/1280x960/8342933419.jpg, , https://51.img.avito.st/1280x960/8318818051.jpg, https://38.img.avito.st/1280x960/8318818038.jpg, https://54.img.avito.st/1280x960/8318818054.jpg</t>
+    <t>https://19.img.avito.st/1280x960/8342933419.jpg,  , https://51.img.avito.st/1280x960/8318818051.jpg , https://38.img.avito.st/1280x960/8318818038.jpg, https://54.img.avito.st/1280x960/8318818054.jpg</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -596,14 +596,47 @@
       <c r="J3" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>35000</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1824106179</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L3"/>
+  <autoFilter ref="A1:L4"/>
   <hyperlinks>
-    <hyperlink ref="L3" r:id="rId1"/>
+    <hyperlink ref="L4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
